--- a/documents/Promotion.xlsx
+++ b/documents/Promotion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\enginkirmaci\SnapIt\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\enginkirmaci\SnapIt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCC227E-39D0-4FBA-BC49-4C80B0381A42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC6EEE-435F-4EDE-A3CC-8B4CB85BC791}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="217">
   <si>
     <t>Product name</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>Mark McCorkle &lt;mccorkle@devteam.org&gt;;</t>
+  </si>
+  <si>
+    <t>Olcay</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1515,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,6 +1817,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>

--- a/documents/Promotion.xlsx
+++ b/documents/Promotion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\enginkirmaci\SnapIt\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\enginkirmaci\SnapIt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC6EEE-435F-4EDE-A3CC-8B4CB85BC791}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60BF68-FA96-4956-ADB8-028690FB93E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="218">
   <si>
     <t>Product name</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Olcay</t>
+  </si>
+  <si>
+    <t>Kelzenberg, Ralf, &lt;Ralf.Kelzenberg@vodafone.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -1515,25 +1518,25 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>215</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>215</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>215</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>215</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>216</v>
       </c>
@@ -1851,7 +1854,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>11</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -3899,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>11</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>11</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>11</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>11</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>11</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>11</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>11</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>11</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>11</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>11</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>11</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>11</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>

--- a/documents/Promotion.xlsx
+++ b/documents/Promotion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\enginkirmaci\SnapIt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60BF68-FA96-4956-ADB8-028690FB93E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFD5AD-BD19-4091-9F0E-7CCEDAEDFC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4815" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="219">
   <si>
     <t>Product name</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>Kelzenberg, Ralf, &lt;Ralf.Kelzenberg@vodafone.com&gt;</t>
+  </si>
+  <si>
+    <t>LTT</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1521,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,6 +1893,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1922,6 +1928,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1954,6 +1963,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1986,6 +1998,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -2018,6 +2033,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -2050,6 +2068,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -2081,7 +2102,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -2145,7 +2172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2207,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -2337,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -2561,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>

--- a/documents/Promotion.xlsx
+++ b/documents/Promotion.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\enginkirmaci\SnapIt\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFD5AD-BD19-4091-9F0E-7CCEDAEDFC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B7BE6A-2B1B-4C65-8BFE-73D06C1C0C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4815" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4440" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
+    <sheet name="Email List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="221">
   <si>
     <t>Product name</t>
   </si>
@@ -677,6 +678,12 @@
   </si>
   <si>
     <t>LTT</t>
+  </si>
+  <si>
+    <t>Guy Dixon, &lt;guydixon@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Mark McCorkle, &lt;mccorkle@devteam.org&gt;</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,4 +4845,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC47473-D2F1-454E-BEF6-5721D896EFF9}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>